--- a/src/test/resources/case/Job.xlsx
+++ b/src/test/resources/case/Job.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="164011"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12645"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12645" activeTab="2"/>
   </bookViews>
   <sheets>
     <sheet name="Base" sheetId="1" r:id="rId1"/>
@@ -138,10 +138,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>\expected\addJob.json</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>nchr.release.microfastup.com/nchr</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -172,6 +168,10 @@
   </si>
   <si>
     <t>base6</t>
+  </si>
+  <si>
+    <t>\expected\Job.json</t>
+    <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
 </file>
@@ -537,7 +537,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:F2"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="E6" sqref="E6"/>
     </sheetView>
   </sheetViews>
@@ -576,7 +576,7 @@
         <v>17</v>
       </c>
       <c r="B2" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="C2" t="s">
         <v>7</v>
@@ -585,7 +585,7 @@
         <v>8</v>
       </c>
       <c r="E2" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="F2" t="s">
         <v>18</v>
@@ -679,7 +679,7 @@
     </row>
     <row r="3" spans="1:9" ht="71.25" x14ac:dyDescent="0.2">
       <c r="A3" s="1" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="B3" s="1" t="s">
         <v>23</v>
@@ -708,7 +708,7 @@
     </row>
     <row r="4" spans="1:9" ht="71.25" x14ac:dyDescent="0.2">
       <c r="A4" s="1" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="B4" s="1" t="s">
         <v>23</v>
@@ -766,7 +766,7 @@
     </row>
     <row r="6" spans="1:9" ht="71.25" x14ac:dyDescent="0.2">
       <c r="A6" s="1" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="B6" s="1" t="s">
         <v>23</v>
@@ -795,7 +795,7 @@
     </row>
     <row r="7" spans="1:9" ht="71.25" x14ac:dyDescent="0.2">
       <c r="A7" s="1" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="B7" s="1" t="s">
         <v>23</v>
@@ -833,13 +833,13 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:B7"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="B11" sqref="B11"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="F5" sqref="F5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="2" max="2" width="41.875" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="17.875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:2" x14ac:dyDescent="0.2">
@@ -855,51 +855,52 @@
         <v>22</v>
       </c>
       <c r="B2" t="s">
-        <v>28</v>
+        <v>37</v>
       </c>
     </row>
     <row r="3" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A3" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="B3" t="s">
-        <v>28</v>
+        <v>37</v>
       </c>
     </row>
     <row r="4" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A4" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="B4" t="s">
-        <v>28</v>
+        <v>37</v>
       </c>
     </row>
     <row r="5" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A5" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="B5" t="s">
-        <v>28</v>
+        <v>37</v>
       </c>
     </row>
     <row r="6" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A6" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="B6" t="s">
-        <v>28</v>
+        <v>37</v>
       </c>
     </row>
     <row r="7" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A7" t="s">
+        <v>36</v>
+      </c>
+      <c r="B7" t="s">
         <v>37</v>
-      </c>
-      <c r="B7" t="s">
-        <v>28</v>
       </c>
     </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>
--- a/src/test/resources/case/Job.xlsx
+++ b/src/test/resources/case/Job.xlsx
@@ -29,7 +29,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="77" uniqueCount="38">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="50" uniqueCount="35">
   <si>
     <t>API</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -159,15 +159,6 @@
   <si>
     <t>base2</t>
     <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>base4</t>
-  </si>
-  <si>
-    <t>base5</t>
-  </si>
-  <si>
-    <t>base6</t>
   </si>
   <si>
     <t>\expected\Job.json</t>
@@ -600,10 +591,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:I7"/>
+  <dimension ref="A1:I4"/>
   <sheetViews>
-    <sheetView topLeftCell="A7" workbookViewId="0">
-      <selection activeCell="B22" sqref="B22"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="D3" sqref="D3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.875" defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -735,93 +726,6 @@
         <v>21</v>
       </c>
     </row>
-    <row r="5" spans="1:9" ht="71.25" x14ac:dyDescent="0.2">
-      <c r="A5" s="1" t="s">
-        <v>19</v>
-      </c>
-      <c r="B5" s="1" t="s">
-        <v>23</v>
-      </c>
-      <c r="C5" s="1">
-        <v>19</v>
-      </c>
-      <c r="D5" s="1">
-        <v>235</v>
-      </c>
-      <c r="E5" s="2" t="s">
-        <v>26</v>
-      </c>
-      <c r="F5" s="2" t="s">
-        <v>27</v>
-      </c>
-      <c r="G5" s="1" t="s">
-        <v>20</v>
-      </c>
-      <c r="H5" s="1" t="s">
-        <v>24</v>
-      </c>
-      <c r="I5" s="1" t="s">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="6" spans="1:9" ht="71.25" x14ac:dyDescent="0.2">
-      <c r="A6" s="1" t="s">
-        <v>30</v>
-      </c>
-      <c r="B6" s="1" t="s">
-        <v>23</v>
-      </c>
-      <c r="C6" s="1">
-        <v>19</v>
-      </c>
-      <c r="D6" s="1">
-        <v>235</v>
-      </c>
-      <c r="E6" s="2" t="s">
-        <v>26</v>
-      </c>
-      <c r="F6" s="2" t="s">
-        <v>27</v>
-      </c>
-      <c r="G6" s="1" t="s">
-        <v>20</v>
-      </c>
-      <c r="H6" s="1" t="s">
-        <v>24</v>
-      </c>
-      <c r="I6" s="1" t="s">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="7" spans="1:9" ht="71.25" x14ac:dyDescent="0.2">
-      <c r="A7" s="1" t="s">
-        <v>32</v>
-      </c>
-      <c r="B7" s="1" t="s">
-        <v>23</v>
-      </c>
-      <c r="C7" s="1">
-        <v>19</v>
-      </c>
-      <c r="D7" s="1">
-        <v>235</v>
-      </c>
-      <c r="E7" s="2" t="s">
-        <v>26</v>
-      </c>
-      <c r="F7" s="2" t="s">
-        <v>27</v>
-      </c>
-      <c r="G7" s="1" t="s">
-        <v>20</v>
-      </c>
-      <c r="H7" s="1" t="s">
-        <v>24</v>
-      </c>
-      <c r="I7" s="1" t="s">
-        <v>21</v>
-      </c>
-    </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -831,10 +735,10 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:B7"/>
+  <dimension ref="A1:B4"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F5" sqref="F5"/>
+      <selection activeCell="C11" sqref="C11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -855,7 +759,7 @@
         <v>22</v>
       </c>
       <c r="B2" t="s">
-        <v>37</v>
+        <v>34</v>
       </c>
     </row>
     <row r="3" spans="1:2" x14ac:dyDescent="0.2">
@@ -863,7 +767,7 @@
         <v>33</v>
       </c>
       <c r="B3" t="s">
-        <v>37</v>
+        <v>34</v>
       </c>
     </row>
     <row r="4" spans="1:2" x14ac:dyDescent="0.2">
@@ -871,31 +775,7 @@
         <v>31</v>
       </c>
       <c r="B4" t="s">
-        <v>37</v>
-      </c>
-    </row>
-    <row r="5" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A5" t="s">
         <v>34</v>
-      </c>
-      <c r="B5" t="s">
-        <v>37</v>
-      </c>
-    </row>
-    <row r="6" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A6" t="s">
-        <v>35</v>
-      </c>
-      <c r="B6" t="s">
-        <v>37</v>
-      </c>
-    </row>
-    <row r="7" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A7" t="s">
-        <v>36</v>
-      </c>
-      <c r="B7" t="s">
-        <v>37</v>
       </c>
     </row>
   </sheetData>
